--- a/public/model-excel/model-charges.xlsx
+++ b/public/model-excel/model-charges.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t xml:space="preserve">account</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">company_email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total</t>
   </si>
   <si>
     <t xml:space="preserve">Achat</t>
@@ -153,13 +156,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.12"/>
@@ -181,22 +184,29 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>60</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <f aca="false">C2+200</f>
+        <v>100200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -204,16 +214,20 @@
         <v>61</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">C3+200</f>
+        <v>100200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -221,16 +235,20 @@
         <v>62</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">C4+200</f>
+        <v>300200</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -238,16 +256,20 @@
         <v>63</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>40000</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">C5+200</f>
+        <v>40200</v>
       </c>
     </row>
   </sheetData>
